--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/199.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/199.xlsx
@@ -479,13 +479,13 @@
         <v>-14.71937455587982</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.74801054214121</v>
+        <v>-14.74255105185621</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.02695976539020606</v>
+        <v>-0.03154207138481017</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.24098847223089</v>
+        <v>-11.23369605954804</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.33137093742012</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.89721042532552</v>
+        <v>-14.89228771945703</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04775800692752462</v>
+        <v>0.04256036269935937</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.94278509040489</v>
+        <v>-10.93597709292719</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.87492702405382</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.26311410514608</v>
+        <v>-15.25770698407244</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08144450213928579</v>
+        <v>0.07666581160205578</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.5833359158853</v>
+        <v>-10.57592567247688</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-13.37665071103332</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.77775943755149</v>
+        <v>-15.77182862436418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2155882370556111</v>
+        <v>0.2101025621649279</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.39986038386135</v>
+        <v>-10.39213592518473</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.83532136359244</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.26641654881607</v>
+        <v>-16.26007987424067</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2045383334571943</v>
+        <v>0.1993145046233456</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.24425836458744</v>
+        <v>-10.23621969064262</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.26059929197282</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.84641865700738</v>
+        <v>-16.83908696741601</v>
       </c>
       <c r="F7" t="n">
-        <v>0.354196447240965</v>
+        <v>0.3473884497632674</v>
       </c>
       <c r="G7" t="n">
-        <v>-10.09600112720773</v>
+        <v>-10.08801482247428</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.65211559020061</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.44025932930239</v>
+        <v>-17.43208973232915</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4975047941464985</v>
+        <v>0.4913906887194124</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.890268680352849</v>
+        <v>-9.882321652527921</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-11.01426377550407</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.17732979468588</v>
+        <v>-18.16807353657678</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7825896885250837</v>
+        <v>0.7756769526246523</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.928301820108063</v>
+        <v>-9.920210776951876</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-10.35841389788729</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.66590835213341</v>
+        <v>-18.65601057118507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8166427682164131</v>
+        <v>0.8105941243035357</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.579051549502179</v>
+        <v>-9.571300906219877</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.696438745704862</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.27713560260224</v>
+        <v>-19.26646537578623</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9421193986515158</v>
+        <v>0.9360707547386383</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.534629365960201</v>
+        <v>-9.526577599712541</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.039487419630143</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.82646244523538</v>
+        <v>-19.81553037236254</v>
       </c>
       <c r="F12" t="n">
-        <v>1.107763214205034</v>
+        <v>1.100929032121653</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.044126239994934</v>
+        <v>-9.035969735324539</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.396486086758971</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.64407675770117</v>
+        <v>-20.63262099271466</v>
       </c>
       <c r="F13" t="n">
-        <v>1.297117190204918</v>
+        <v>1.28977240831071</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.561661787974488</v>
+        <v>-8.552484083682437</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.790756863819786</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.47665557231506</v>
+        <v>-21.4651212535115</v>
       </c>
       <c r="F14" t="n">
-        <v>1.625511422383933</v>
+        <v>1.617341825410696</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.116903168138212</v>
+        <v>-8.106468602773356</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.239838525121704</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.30277988162797</v>
+        <v>-22.2909575321619</v>
       </c>
       <c r="F15" t="n">
-        <v>1.741561594772993</v>
+        <v>1.733051597925871</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.686415158399416</v>
+        <v>-7.674880839595856</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.757247293392468</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.15722284198754</v>
+        <v>-23.14571470778966</v>
       </c>
       <c r="F16" t="n">
-        <v>2.022967552053053</v>
+        <v>2.014117155332046</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.100246575569657</v>
+        <v>-7.089537071845125</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.348124965135782</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.7678347542228</v>
+        <v>-23.75661465068745</v>
       </c>
       <c r="F17" t="n">
-        <v>2.214717419472973</v>
+        <v>2.205736099723549</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.017084267919013</v>
+        <v>-7.006021272017755</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.021776674210598</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.58313172908561</v>
+        <v>-24.57157122567637</v>
       </c>
       <c r="F18" t="n">
-        <v>2.639562646686984</v>
+        <v>2.629612496527272</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.615752816608742</v>
+        <v>-6.604716005313167</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.780525325633935</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.43821621228443</v>
+        <v>-25.42613201676151</v>
       </c>
       <c r="F19" t="n">
-        <v>2.906043378727476</v>
+        <v>2.895962305539348</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.307978961405445</v>
+        <v>-6.297452749920698</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.621984808725797</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.19149494858598</v>
+        <v>-26.17939766076022</v>
       </c>
       <c r="F20" t="n">
-        <v>3.127669881232215</v>
+        <v>3.117588808044086</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.206854014255954</v>
+        <v>-6.195057849395559</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.537936096961211</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.77597462434915</v>
+        <v>-26.76382496731203</v>
       </c>
       <c r="F21" t="n">
-        <v>3.44180659561659</v>
+        <v>3.432118291513713</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.86951773923604</v>
+        <v>-5.858494020243306</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.522484874389331</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.36325605292046</v>
+        <v>-27.35101474976345</v>
       </c>
       <c r="F22" t="n">
-        <v>3.640338275908525</v>
+        <v>3.631514063793201</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.736578496181153</v>
+        <v>-5.724101531572988</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.568167727790282</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.80552713521681</v>
+        <v>-27.79382261647631</v>
       </c>
       <c r="F23" t="n">
-        <v>3.821692854872114</v>
+        <v>3.812999565785208</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.533490694500299</v>
+        <v>-5.521485052794436</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.666620774388602</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.03625278819655</v>
+        <v>-28.02440425412479</v>
       </c>
       <c r="F24" t="n">
-        <v>3.958428865751101</v>
+        <v>3.949657022847145</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.372638661786852</v>
+        <v>-5.360462820144047</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.805462283390252</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.30016742888006</v>
+        <v>-28.28871166389355</v>
       </c>
       <c r="F25" t="n">
-        <v>4.274424687139001</v>
+        <v>4.265574290417995</v>
       </c>
       <c r="G25" t="n">
-        <v>-5.075600494913771</v>
+        <v>-5.063830514659059</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.972676233871279</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.25933253631672</v>
+        <v>-28.24795532514726</v>
       </c>
       <c r="F26" t="n">
-        <v>4.442451301809714</v>
+        <v>4.432762997706837</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.083429692013123</v>
+        <v>-5.071201481158951</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-6.156333661739949</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.14789085452794</v>
+        <v>-28.13690641244374</v>
       </c>
       <c r="F27" t="n">
-        <v>4.390108275048493</v>
+        <v>4.381022216876335</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.887359364655433</v>
+        <v>-4.876440384085434</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-6.347736267885288</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.09980282619028</v>
+        <v>-28.08845179962651</v>
       </c>
       <c r="F28" t="n">
-        <v>4.362143116178566</v>
+        <v>4.353894965388279</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.795595414037775</v>
+        <v>-4.785527433152488</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-6.536710513428703</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.88028418444306</v>
+        <v>-27.86964014223274</v>
       </c>
       <c r="F29" t="n">
-        <v>4.348396198194754</v>
+        <v>4.340383708855618</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.671938613697673</v>
+        <v>-4.662341955714687</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.713327591524641</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.73193530094347</v>
+        <v>-27.72160547400134</v>
       </c>
       <c r="F30" t="n">
-        <v>4.245045559562168</v>
+        <v>4.237740054576485</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.625015800312926</v>
+        <v>-4.61548460384415</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.870311867535121</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.28378577467118</v>
+        <v>-27.27386180911715</v>
       </c>
       <c r="F31" t="n">
-        <v>4.096421737702894</v>
+        <v>4.089535186408146</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.707772246575477</v>
+        <v>-4.699236065122672</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.00592973720283</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.90371622317587</v>
+        <v>-26.89425048822131</v>
       </c>
       <c r="F32" t="n">
-        <v>4.007210786139373</v>
+        <v>4.000717003929877</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.787033047979286</v>
+        <v>-4.778601604949215</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.117495130034376</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.48397699407014</v>
+        <v>-26.47452435141841</v>
       </c>
       <c r="F33" t="n">
-        <v>3.872883758983263</v>
+        <v>3.866520899802184</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.705468001275333</v>
+        <v>-4.699209880516988</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.200912208653786</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.99500566753735</v>
+        <v>-25.98585414785099</v>
       </c>
       <c r="F34" t="n">
-        <v>3.73921134696924</v>
+        <v>3.733345995296147</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.517514901679514</v>
+        <v>-4.512264888239981</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.2545167103882</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.58373715837021</v>
+        <v>-25.57510933079751</v>
       </c>
       <c r="F35" t="n">
-        <v>3.501167096700977</v>
+        <v>3.495144637393782</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.516035471458399</v>
+        <v>-4.511715011520629</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.278827797530106</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.89518676731815</v>
+        <v>-24.88650657053409</v>
       </c>
       <c r="F36" t="n">
-        <v>3.276058041640339</v>
+        <v>3.271030597349116</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.781704480722704</v>
+        <v>-4.777855343687237</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.271856912765619</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.41251283845224</v>
+        <v>-24.40433014917616</v>
       </c>
       <c r="F37" t="n">
-        <v>3.147622550763006</v>
+        <v>3.142333260414949</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.768913300846338</v>
+        <v>-4.765928255798424</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.229091010138485</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.99413520884204</v>
+        <v>-23.9863714732569</v>
       </c>
       <c r="F38" t="n">
-        <v>3.073493932073153</v>
+        <v>3.068361749359196</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.915887492547554</v>
+        <v>-4.91250967841439</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.148670913022933</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.49268691770109</v>
+        <v>-23.48514575126426</v>
       </c>
       <c r="F39" t="n">
-        <v>3.046209572950996</v>
+        <v>3.040972651814305</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.782097249807956</v>
+        <v>-4.779360958514035</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.030743597311167</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.10770775264013</v>
+        <v>-23.10041533995729</v>
       </c>
       <c r="F40" t="n">
-        <v>3.14424473662984</v>
+        <v>3.137934246660128</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.76294321075051</v>
+        <v>-4.760887719204359</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.876274711742109</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.57613407266037</v>
+        <v>-22.56898567530879</v>
       </c>
       <c r="F41" t="n">
-        <v>3.155975439976027</v>
+        <v>3.150319565148402</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.690712975972708</v>
+        <v>-4.68868366903224</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.685646879681784</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.89547834022188</v>
+        <v>-21.88891909649817</v>
       </c>
       <c r="F42" t="n">
-        <v>3.248773682518181</v>
+        <v>3.243432022958757</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.719398211498929</v>
+        <v>-4.717211796924361</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.463646197533382</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.23155457081511</v>
+        <v>-21.22511315781698</v>
       </c>
       <c r="F43" t="n">
-        <v>3.367573238504004</v>
+        <v>3.362179209733212</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.766609055546194</v>
+        <v>-4.763912041160799</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.217001792339864</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.93960930974746</v>
+        <v>-20.9335344812289</v>
       </c>
       <c r="F44" t="n">
-        <v>3.271161520377533</v>
+        <v>3.266186445297677</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.815600452779933</v>
+        <v>-4.813230745965581</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-5.953795026249963</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.44970842971291</v>
+        <v>-20.44411801639949</v>
       </c>
       <c r="F45" t="n">
-        <v>3.401770333526592</v>
+        <v>3.396297750938751</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.760887719204359</v>
+        <v>-4.758884596869575</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-5.679823080215091</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.12374936586246</v>
+        <v>-20.11791019879504</v>
       </c>
       <c r="F46" t="n">
-        <v>3.428923769620332</v>
+        <v>3.423582110060908</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.726690624181771</v>
+        <v>-4.725983639828318</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-5.402148190068658</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.57571866121064</v>
+        <v>-19.57050792467964</v>
       </c>
       <c r="F47" t="n">
-        <v>3.434841490504792</v>
+        <v>3.429735492396519</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.993773602152983</v>
+        <v>-4.993485571490464</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.1296754663308</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.09930285310307</v>
+        <v>-19.09428850111469</v>
       </c>
       <c r="F48" t="n">
-        <v>3.361681702225227</v>
+        <v>3.356968473202206</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.108278882806719</v>
+        <v>-5.108095590566935</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.869845463930109</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.71870960949409</v>
+        <v>-18.712844257821</v>
       </c>
       <c r="F49" t="n">
-        <v>3.37998474159796</v>
+        <v>3.375376250997673</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.399333867281131</v>
+        <v>-5.39879708286462</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.627150643241733</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.20210043166243</v>
+        <v>-18.19651001834901</v>
       </c>
       <c r="F50" t="n">
-        <v>3.528111055949249</v>
+        <v>3.522559919544357</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.30186167262448</v>
+        <v>-5.303092349091603</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.403576595156944</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.53921095418015</v>
+        <v>-17.53337178711274</v>
       </c>
       <c r="F51" t="n">
-        <v>3.548247017719823</v>
+        <v>3.54230311222968</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.514415209259903</v>
+        <v>-5.515698254938393</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.203573386700489</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.14573488457492</v>
+        <v>-17.14005282514161</v>
       </c>
       <c r="F52" t="n">
-        <v>3.373098190303212</v>
+        <v>3.367677976926738</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.817397281623128</v>
+        <v>-5.817174712474818</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.028486009725684</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.7583205511854</v>
+        <v>-16.75231118418105</v>
       </c>
       <c r="F53" t="n">
-        <v>3.405069593842707</v>
+        <v>3.399989780340118</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.84532316358453</v>
+        <v>-5.845388625098739</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.876571877242881</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.5676442525985</v>
+        <v>-16.56082316281796</v>
       </c>
       <c r="F54" t="n">
-        <v>3.138300831139697</v>
+        <v>3.133456679088258</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.017696422798696</v>
+        <v>-6.018351037940781</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.743065364031382</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.28113229721017</v>
+        <v>-16.27383988452733</v>
       </c>
       <c r="F55" t="n">
-        <v>2.992059808397617</v>
+        <v>2.987084733317761</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.154602633614624</v>
+        <v>-6.155990417715848</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.627209838118233</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.95801426307637</v>
+        <v>-15.94992321992018</v>
       </c>
       <c r="F56" t="n">
-        <v>2.93845992056359</v>
+        <v>2.933484845483734</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.473845346107273</v>
+        <v>-6.474081007558424</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.526427832345098</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.41083455810927</v>
+        <v>-15.40282206877013</v>
       </c>
       <c r="F57" t="n">
-        <v>2.981481227701502</v>
+        <v>2.975668245239776</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.730585404833521</v>
+        <v>-6.730899620101723</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.4366454487483</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.21268255459975</v>
+        <v>-15.20418565005547</v>
       </c>
       <c r="F58" t="n">
-        <v>2.824897285714458</v>
+        <v>2.818874826407264</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.70797499782586</v>
+        <v>-6.708105920854278</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-3.352407444812347</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.87073778897955</v>
+        <v>-14.86191357686422</v>
       </c>
       <c r="F59" t="n">
-        <v>2.956972436781791</v>
+        <v>2.950190623909777</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.815803204030316</v>
+        <v>-6.81620906541841</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-3.271650506968475</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.81982182322807</v>
+        <v>-14.81042154978771</v>
       </c>
       <c r="F60" t="n">
-        <v>2.775879703875036</v>
+        <v>2.769097891003022</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823841877975136</v>
+        <v>-6.823815693369452</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-3.192968485382287</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.47434213584061</v>
+        <v>-14.46509897003435</v>
       </c>
       <c r="F61" t="n">
-        <v>2.662500361265688</v>
+        <v>2.655639994576624</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.237584832379364</v>
+        <v>-7.236773109603177</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-3.115140602199831</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.27564025561173</v>
+        <v>-14.26542825939518</v>
       </c>
       <c r="F62" t="n">
-        <v>2.619007731225474</v>
+        <v>2.611833149268208</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.175501132303898</v>
+        <v>-7.175671332240841</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-3.03616546541538</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.95739255813505</v>
+        <v>-13.94708891579861</v>
       </c>
       <c r="F63" t="n">
-        <v>2.546266896636844</v>
+        <v>2.539118499285262</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.383367624521983</v>
+        <v>-7.382713009379897</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-2.956321396781229</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.77475493349297</v>
+        <v>-13.7638752298315</v>
       </c>
       <c r="F64" t="n">
-        <v>2.460093359332603</v>
+        <v>2.452656931318502</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.385986085090329</v>
+        <v>-7.387046561620508</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.876771478383315</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.58698512613694</v>
+        <v>-13.57588285332715</v>
       </c>
       <c r="F65" t="n">
-        <v>2.203615146663189</v>
+        <v>2.197880718018513</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.742777522133047</v>
+        <v>-7.742659691407471</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.798665200797125</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.37320091303439</v>
+        <v>-13.36188916337914</v>
       </c>
       <c r="F66" t="n">
-        <v>2.137315725072689</v>
+        <v>2.131581296428013</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.780260785168909</v>
+        <v>-7.780928492613837</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.722733708081789</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.20438876019318</v>
+        <v>-13.19295917981235</v>
       </c>
       <c r="F67" t="n">
-        <v>2.43155213913764</v>
+        <v>2.423487280587137</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.867979214208473</v>
+        <v>-7.86749479900333</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.650254620638444</v>
       </c>
       <c r="E68" t="n">
-        <v>-13.15802891583063</v>
+        <v>-13.14618038175886</v>
       </c>
       <c r="F68" t="n">
-        <v>2.128098743872113</v>
+        <v>2.121604961662617</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.758422824028909</v>
+        <v>-7.759090531473838</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.583577980708388</v>
       </c>
       <c r="E69" t="n">
-        <v>-13.01845187523498</v>
+        <v>-13.00652478734617</v>
       </c>
       <c r="F69" t="n">
-        <v>2.20149419360283</v>
+        <v>2.193246042812542</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.830718520320922</v>
+        <v>-7.831386227765849</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.52513360938611</v>
       </c>
       <c r="E70" t="n">
-        <v>-13.0023614350425</v>
+        <v>-12.98963571668035</v>
       </c>
       <c r="F70" t="n">
-        <v>2.195969241803621</v>
+        <v>2.18821859852132</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.736899078157112</v>
+        <v>-7.737907185475925</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.475853825549964</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.6931736111323</v>
+        <v>-12.68084066185539</v>
       </c>
       <c r="F71" t="n">
-        <v>2.152869380848659</v>
+        <v>2.144935445326573</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.433092190714858</v>
+        <v>-7.43560591286047</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.435053691196199</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.6242688212763</v>
+        <v>-12.61205370272496</v>
       </c>
       <c r="F72" t="n">
-        <v>2.157949194351249</v>
+        <v>2.150460397125781</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.503280026249352</v>
+        <v>-7.505152225555719</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-2.40284173586815</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.28399987041984</v>
+        <v>-12.27474361231073</v>
       </c>
       <c r="F73" t="n">
-        <v>2.134304495419092</v>
+        <v>2.126789513587941</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.224427068023429</v>
+        <v>-7.227831066762278</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-2.378220780631164</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.48639378005008</v>
+        <v>-12.47707206042677</v>
       </c>
       <c r="F74" t="n">
-        <v>2.156168641164774</v>
+        <v>2.148889320784774</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.179075330979689</v>
+        <v>-7.181837806879294</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-2.358842524615151</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.61954249995043</v>
+        <v>-12.61016841111576</v>
       </c>
       <c r="F75" t="n">
-        <v>2.088167220204849</v>
+        <v>2.080887899824849</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.112003463521527</v>
+        <v>-7.114163693490411</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-2.340344987132088</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.87145149892808</v>
+        <v>-12.86288913286959</v>
       </c>
       <c r="F76" t="n">
-        <v>2.064653444301109</v>
+        <v>2.057845446823412</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.752397181367837</v>
+        <v>-6.756102303072045</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-2.320203037437434</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.44388625607687</v>
+        <v>-13.43571665910363</v>
       </c>
       <c r="F77" t="n">
-        <v>2.059180861713267</v>
+        <v>2.052189571995786</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.705173245017731</v>
+        <v>-6.707713151769026</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-2.295865760126449</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.93288376721534</v>
+        <v>-13.92509384702451</v>
       </c>
       <c r="F78" t="n">
-        <v>2.111628626897222</v>
+        <v>2.104375491122906</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.733793019029744</v>
+        <v>-6.734774941742874</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-2.265779741089828</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.42083389412647</v>
+        <v>-14.41310943544985</v>
       </c>
       <c r="F79" t="n">
-        <v>2.15538310299427</v>
+        <v>2.148287074854055</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.643914360021295</v>
+        <v>-6.644097652261079</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-2.229203697144224</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.96840636817882</v>
+        <v>-14.9607735556221</v>
       </c>
       <c r="F80" t="n">
-        <v>2.036452623980031</v>
+        <v>2.030351610855786</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.285015062221058</v>
+        <v>-6.286062446448396</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.188587082593575</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.73943826713375</v>
+        <v>-15.73193637760544</v>
       </c>
       <c r="F81" t="n">
-        <v>2.138206001665926</v>
+        <v>2.131738404062113</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.231703205049549</v>
+        <v>-6.23216143564901</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.148997012808551</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.46638838242059</v>
+        <v>-16.45913524664628</v>
       </c>
       <c r="F82" t="n">
-        <v>2.104427860334273</v>
+        <v>2.098588693266863</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.129714165912503</v>
+        <v>-6.130342596448906</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.117978444894832</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.34363813433045</v>
+        <v>-17.33630644473908</v>
       </c>
       <c r="F83" t="n">
-        <v>2.087564974274129</v>
+        <v>2.081490145755569</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.831458414875142</v>
+        <v>-5.832440337588271</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.103718397844186</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.39595815983986</v>
+        <v>-18.38880976248828</v>
       </c>
       <c r="F84" t="n">
-        <v>2.093744541215424</v>
+        <v>2.088402881656</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.726733084444175</v>
+        <v>-5.726929468986801</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.114510132073881</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.19407803337433</v>
+        <v>-19.18706055905116</v>
       </c>
       <c r="F85" t="n">
-        <v>2.123149853397941</v>
+        <v>2.117441609358949</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.595273271610403</v>
+        <v>-5.594762671799576</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.158265978741423</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.34771939057586</v>
+        <v>-20.3400734857163</v>
       </c>
       <c r="F86" t="n">
-        <v>2.110162288978949</v>
+        <v>2.10455878336269</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.253524890532828</v>
+        <v>-5.253420152110094</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.244531754378446</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.41424456466855</v>
+        <v>-21.40653319829477</v>
       </c>
       <c r="F87" t="n">
-        <v>1.915977253230468</v>
+        <v>1.912389962251835</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.884871827115505</v>
+        <v>-4.885670457588851</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.379990219125767</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.75445123736468</v>
+        <v>-22.74694934783637</v>
       </c>
       <c r="F88" t="n">
-        <v>2.013855309275212</v>
+        <v>2.009849064605643</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.662053925052169</v>
+        <v>-4.662027740446486</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.568550560351975</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.12757195940491</v>
+        <v>-24.120947254167</v>
       </c>
       <c r="F89" t="n">
-        <v>1.886755233287735</v>
+        <v>1.88201581965903</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.273343453681322</v>
+        <v>-4.273788591977941</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.809486539530726</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.5949048926942</v>
+        <v>-25.58848966430176</v>
       </c>
       <c r="F90" t="n">
-        <v>1.666568884095586</v>
+        <v>1.662484085608968</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.166916123880931</v>
+        <v>-4.166549539401363</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.103887994156276</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.23729500728021</v>
+        <v>-27.23099760961334</v>
       </c>
       <c r="F91" t="n">
-        <v>1.458060869038257</v>
+        <v>1.454395024242573</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.059938917361188</v>
+        <v>-4.060200763418022</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.447777657653144</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.82124108198076</v>
+        <v>-28.81603034544975</v>
       </c>
       <c r="F92" t="n">
-        <v>1.331798700432651</v>
+        <v>1.328525624722219</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.787920141218645</v>
+        <v>-3.788430741029472</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.833885267346122</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.6661167523169</v>
+        <v>-30.66136424638536</v>
       </c>
       <c r="F93" t="n">
-        <v>1.191553952392081</v>
+        <v>1.18843798431575</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.773976838692207</v>
+        <v>-3.775011130616703</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.249322784890947</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.73776420017459</v>
+        <v>-32.73366630938513</v>
       </c>
       <c r="F94" t="n">
-        <v>1.075778718362697</v>
+        <v>1.072885319434676</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.76398741162397</v>
+        <v>-3.765466841845085</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.686449423655977</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.76277686531004</v>
+        <v>-34.75932049735982</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6722084832664912</v>
+        <v>0.669249622824261</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.747569663860445</v>
+        <v>-3.749232386321344</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.137898306315701</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.72875633693215</v>
+        <v>-36.72578438418708</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4539336102892342</v>
+        <v>0.4503986885219681</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.964207998982487</v>
+        <v>-3.965491044660976</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.58971895919021</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.81293311860937</v>
+        <v>-38.81043248876659</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06682039986507778</v>
+        <v>0.06384844712000595</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.952438018727775</v>
+        <v>-3.954650617908027</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-6.038123305158287</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.02380411488596</v>
+        <v>-41.022560346116</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.1376290013113165</v>
+        <v>-0.1411639230785826</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.151990898641364</v>
+        <v>-4.154268959335824</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-6.466381724401431</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.39843363510687</v>
+        <v>-43.39766118923921</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.05881333820412558</v>
+        <v>-0.06229589076002471</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.481825284132968</v>
+        <v>-4.484011698707537</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.888199961442365</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79592231608943</v>
+        <v>-45.79596159299795</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3394992188278907</v>
+        <v>-0.3417118180081425</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.659199803032673</v>
+        <v>-4.662014648143645</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.269924612917197</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19415725833397</v>
+        <v>-48.19423581215102</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.2668369380563111</v>
+        <v>-0.2699790907383253</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.928665580121079</v>
+        <v>-4.932305240311079</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.654358024281747</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.40295967076158</v>
+        <v>-50.40382376274913</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4156833290638948</v>
+        <v>-0.4185898202947579</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.29078558442038</v>
+        <v>-5.294032475525128</v>
       </c>
     </row>
   </sheetData>
